--- a/results/recall_results.xlsx
+++ b/results/recall_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af91f69c463c54d7/research/twconv/twconvrsu/twconvrsu/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BB1F67-D382-2B4C-B345-750E1C9066FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{C1BB1F67-D382-2B4C-B345-750E1C9066FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EB78B841-8ABF-F444-9308-8663F934B872}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="440" windowWidth="14400" windowHeight="16580" xr2:uid="{838CA5A6-050F-2D48-9536-CB06E1CFC23D}"/>
+    <workbookView xWindow="6280" yWindow="440" windowWidth="22520" windowHeight="16580" xr2:uid="{838CA5A6-050F-2D48-9536-CB06E1CFC23D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RANDOM</t>
   </si>
@@ -44,26 +44,33 @@
     <t>LSTM</t>
   </si>
   <si>
-    <t>recall@(1, 10):</t>
-  </si>
-  <si>
-    <t>recall@(2, 10):</t>
-  </si>
-  <si>
-    <t>recall@(5, 10):</t>
-  </si>
-  <si>
-    <t>NWEU</t>
-  </si>
-  <si>
-    <t>WEU</t>
+    <t>Bi-LSTM</t>
+  </si>
+  <si>
+    <t>recall@(1,10)</t>
+  </si>
+  <si>
+    <t>recall@(2,10)</t>
+  </si>
+  <si>
+    <t>recall@(5,10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="4">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,12 +91,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,17 +108,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,16 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A80B1AE-5419-F849-A6D6-5F11D1BF7C9D}">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H6"/>
+      <selection activeCell="G5" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="1"/>
+    <row r="2" spans="2:7">
+      <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,75 +485,66 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.4773</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.59375000283122048</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.68565625041723233</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.4773</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>0.61499999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.20669999999999999</v>
+      <c r="C5" s="1">
+        <v>0.50260000000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>0.57840000000000003</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.81640000000000001</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.50260000000000005</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.75370000000000004</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>0.81299999999999994</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/recall_results.xlsx
+++ b/results/recall_results.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af91f69c463c54d7/research/twconv/twconvrsu/twconvrsu/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/onedrive/research/twconv/twconvrsu/twconvrsu/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{C1BB1F67-D382-2B4C-B345-750E1C9066FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EB78B841-8ABF-F444-9308-8663F934B872}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{C1BB1F67-D382-2B4C-B345-750E1C9066FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{FD97123E-1D7A-684E-B36A-80ECCDC04A70}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="440" windowWidth="22520" windowHeight="16580" xr2:uid="{838CA5A6-050F-2D48-9536-CB06E1CFC23D}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{838CA5A6-050F-2D48-9536-CB06E1CFC23D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="politics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>RANDOM</t>
   </si>
@@ -54,6 +50,12 @@
   </si>
   <si>
     <t>recall@(5,10)</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>recall@1</t>
   </si>
 </sst>
 </file>
@@ -63,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +92,22 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,19 +156,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A80B1AE-5419-F849-A6D6-5F11D1BF7C9D}">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="B2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -475,78 +504,170 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0.10249999999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0.4773</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>0.33</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>0.59375000283122048</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="5">
+        <v>0.62343752399999997</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0.20669999999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>0.57840000000000003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0.47</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>0.68565625041723233</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="5">
+        <v>0.70390623799999996</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>0.50260000000000005</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>0.75370000000000004</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>0.7</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>0.81640000000000001</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="5">
+        <v>0.83984375</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="E7" s="6">
+        <f>E3-$D3</f>
+        <v>-0.14729999999999999</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7:G7" si="0">F3-$D3</f>
+        <v>0.11645000283122048</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14613752399999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="E8" s="6">
+        <f>E4-$D4</f>
+        <v>-0.10840000000000005</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:G8" si="1">F4-$D4</f>
+        <v>0.1072562504172323</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12550623799999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="E9" s="6">
+        <f>E5-$D5</f>
+        <v>-5.3700000000000081E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9:G9" si="2">F5-$D5</f>
+        <v>6.2699999999999978E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>8.6143749999999963E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="G11" s="6">
+        <f>G3-F3</f>
+        <v>2.9687521168779485E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="G12" s="6">
+        <f t="shared" ref="G12:G13" si="3">G4-F4</f>
+        <v>1.8249987582767635E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3443749999999985E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D007F6C8-DC5B-6346-B2C1-A1E40759C7F0}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{83DF5530-83EA-BE44-9DC7-F0DE80F90639}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>